--- a/biology/Botanique/Érable_de_Miyabe/Érable_de_Miyabe.xlsx
+++ b/biology/Botanique/Érable_de_Miyabe/Érable_de_Miyabe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Miyabe</t>
+          <t>Érable_de_Miyabe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer Miyabei
-L’Acer miyabei (érable de Miyabe;  Anglais: Miyabe Maple; Japonais: クロビイタヤ： kurobiitaya) est une espèce d’érable  originaire du  Japon, où il pousse dans les régions d’Hokkaidō et de Tōhoku au nord de  Honshū[1].
+L’Acer miyabei (érable de Miyabe;  Anglais: Miyabe Maple; Japonais: クロビイタヤ： kurobiitaya) est une espèce d’érable  originaire du  Japon, où il pousse dans les régions d’Hokkaidō et de Tōhoku au nord de  Honshū.
 C’est un arbre à feuilles caduques, de petite à moyenne taille s’élevant de 10 à 20 m de hauteur (rarement plus de 10 m chez nous), avec un tronc atteignant de 30 à 40 cm de diamètre dont l'écorce parcourue de fortes stries et grossièrement squameuse est de couleur gris brun. Les feuilles qui comportent cinq lobes (les deux lobes situés à la base de la feuille sont généralement plus petits), de 7 à 20 cm de longueur et 12 à 20 cm de largeur ont un long pétiole produisant un latex blanc à la coupure.  Les fleurs jaune vert  à corymbes dressés apparaissent au printemps au moment même ou les feuilles s’ouvrent.
-Le fruit est une samare à deux graines ailées jumelées formant un angle de 180°, chaque graine a 8 mm de largeur est plate et a deux ailes de 2 cm[1],[2].
-C’est une espèce rare menacée de disparition, confinée à des régions s’étendant le long des ruisseaux et rivières[3],[1].
-Il y deux variétés biologiques de cet arbre[4] :
+Le fruit est une samare à deux graines ailées jumelées formant un angle de 180°, chaque graine a 8 mm de largeur est plate et a deux ailes de 2 cm,.
+C’est une espèce rare menacée de disparition, confinée à des régions s’étendant le long des ruisseaux et rivières,.
+Il y deux variétés biologiques de cet arbre :
 Acer miyabei var. miyabei. Samaras downy.
 Acer miyabei var. shibatai (Nakai) Hara. Samaras hairless.
-Il est très proche de l’espèce  Acer miaotaiense de Chine (certains auteurs considèrent ce dernier comme une sous-espèce l’A. miyabei et la dénomment Acer miyabei subsp. miaotaiense (P.C.Tsoong) E.Murray), et de l’Acer campestre d’Europe[1],[2],[5].
+Il est très proche de l’espèce  Acer miaotaiense de Chine (certains auteurs considèrent ce dernier comme une sous-espèce l’A. miyabei et la dénomment Acer miyabei subsp. miaotaiense (P.C.Tsoong) E.Murray), et de l’Acer campestre d’Europe.
 </t>
         </is>
       </c>
